--- a/docs/sprintC/global-artifacts/PI-2023-24 Self-Assessment.xlsx
+++ b/docs/sprintC/global-artifacts/PI-2023-24 Self-Assessment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\IdeaProjects\lei-24-s2-1dg-g072\docs\sprintB\global-artifacts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\IdeaProjects\lei-24-s2-1dg-g072\docs\sprintC\global-artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AC4568-6C52-4B40-A626-3B69998CB148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDB2233-64BB-48D8-AA5E-2E59E2FA3E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -1806,37 +1806,37 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="7.8984375" customWidth="1"/>
+    <col min="4" max="19" width="7.875" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>137</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1847,13 +1847,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:20" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:20" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="65" t="s">
@@ -1875,7 +1875,7 @@
       <c r="S8" s="66"/>
       <c r="T8" s="67"/>
     </row>
-    <row r="9" spans="1:20" ht="105.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="105.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="42">
@@ -1942,7 +1942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="62" t="s">
         <v>6</v>
       </c>
@@ -1961,7 +1961,9 @@
       <c r="G10" s="39">
         <v>4</v>
       </c>
-      <c r="H10" s="39"/>
+      <c r="H10" s="39">
+        <v>5</v>
+      </c>
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
@@ -1974,10 +1976,10 @@
       <c r="R10" s="37"/>
       <c r="S10" s="50">
         <f>AVERAGE(D10:R10)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="63"/>
       <c r="C11" s="8">
         <v>1230948</v>
@@ -1994,7 +1996,9 @@
       <c r="G11" s="8">
         <v>4</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8">
+        <v>5</v>
+      </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -2007,10 +2011,10 @@
       <c r="R11" s="10"/>
       <c r="S11" s="51">
         <f t="shared" ref="S11:S24" si="0">AVERAGE(D11:R11)</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="63"/>
       <c r="C12" s="8">
         <v>1230630</v>
@@ -2027,7 +2031,9 @@
       <c r="G12" s="35">
         <v>5</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8">
+        <v>4</v>
+      </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -2040,10 +2046,10 @@
       <c r="R12" s="10"/>
       <c r="S12" s="51">
         <f t="shared" si="0"/>
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="63"/>
       <c r="C13" s="8">
         <v>1230917</v>
@@ -2060,7 +2066,9 @@
       <c r="G13" s="36">
         <v>4</v>
       </c>
-      <c r="H13" s="35"/>
+      <c r="H13" s="35">
+        <v>4</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -2073,10 +2081,10 @@
       <c r="R13" s="10"/>
       <c r="S13" s="51">
         <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="63"/>
       <c r="C14" s="8">
         <v>1221119</v>
@@ -2089,7 +2097,9 @@
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="36"/>
+      <c r="H14" s="36">
+        <v>4</v>
+      </c>
       <c r="I14" s="35"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -2105,7 +2115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="63"/>
       <c r="C15" s="8" t="s">
         <v>7</v>
@@ -2130,7 +2140,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="63"/>
       <c r="C16" s="8" t="s">
         <v>8</v>
@@ -2155,7 +2165,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="63"/>
       <c r="C17" s="8" t="s">
         <v>9</v>
@@ -2180,7 +2190,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="63"/>
       <c r="C18" s="8" t="s">
         <v>10</v>
@@ -2205,7 +2215,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="63"/>
       <c r="C19" s="8" t="s">
         <v>11</v>
@@ -2230,7 +2240,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="63"/>
       <c r="C20" s="8" t="s">
         <v>12</v>
@@ -2255,7 +2265,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="63"/>
       <c r="C21" s="8" t="s">
         <v>13</v>
@@ -2280,7 +2290,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="63"/>
       <c r="C22" s="8" t="s">
         <v>14</v>
@@ -2305,7 +2315,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="63"/>
       <c r="C23" s="8" t="s">
         <v>15</v>
@@ -2330,7 +2340,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="64"/>
       <c r="C24" s="40" t="s">
         <v>16</v>
@@ -2355,7 +2365,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="45" t="s">
         <v>5</v>
@@ -2376,9 +2386,9 @@
         <f t="shared" si="1"/>
         <v>4.25</v>
       </c>
-      <c r="H25" s="46" t="e">
+      <c r="H25" s="46">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I25" s="46" t="e">
         <f t="shared" si="1"/>
@@ -2422,27 +2432,27 @@
       </c>
       <c r="S25" s="53"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2450,7 +2460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2458,7 +2468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2466,7 +2476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2474,7 +2484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2482,7 +2492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2510,25 +2520,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>28</v>
       </c>
@@ -2560,7 +2570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="63"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
@@ -2584,7 +2594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="63"/>
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
@@ -2608,7 +2618,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>138</v>
       </c>
@@ -2638,7 +2648,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>139</v>
       </c>
@@ -2668,7 +2678,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>140</v>
       </c>
@@ -2698,7 +2708,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>141</v>
       </c>
@@ -2728,7 +2738,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>142</v>
       </c>
@@ -2758,7 +2768,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>143</v>
       </c>
@@ -2788,7 +2798,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>144</v>
       </c>
@@ -2818,7 +2828,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>145</v>
       </c>
@@ -2848,7 +2858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>146</v>
       </c>
@@ -2878,7 +2888,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>147</v>
       </c>
@@ -2906,7 +2916,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>148</v>
       </c>
@@ -2934,7 +2944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>149</v>
       </c>
@@ -2962,7 +2972,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>150</v>
       </c>
@@ -2990,7 +3000,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>151</v>
       </c>
@@ -3018,7 +3028,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -3042,7 +3052,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -3066,7 +3076,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -3090,7 +3100,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -3114,7 +3124,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -3138,7 +3148,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22"/>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
@@ -3204,28 +3214,28 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.59765625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.8984375" style="1"/>
+    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>47</v>
       </c>
@@ -3244,8 +3254,8 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>48</v>
       </c>
@@ -3346,7 +3356,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>50</v>
       </c>
@@ -3365,7 +3375,9 @@
       <c r="F4" s="25">
         <v>5</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="25">
+        <v>4</v>
+      </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
@@ -3378,7 +3390,7 @@
       <c r="Q4" s="25"/>
       <c r="R4" s="27">
         <f t="shared" ref="R4:R7" si="0">AVERAGE(C4:Q4)</f>
-        <v>4.75</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>51</v>
@@ -3401,7 +3413,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>57</v>
       </c>
@@ -3420,7 +3432,9 @@
       <c r="F5" s="25">
         <v>4</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="25">
+        <v>4</v>
+      </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
@@ -3456,7 +3470,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>64</v>
       </c>
@@ -3475,7 +3489,9 @@
       <c r="F6" s="25">
         <v>4</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="25">
+        <v>4</v>
+      </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
@@ -3511,7 +3527,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>70</v>
       </c>
@@ -3558,7 +3574,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -3584,7 +3600,7 @@
       </c>
       <c r="G8" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="1"/>
@@ -3636,7 +3652,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>76</v>
       </c>
@@ -3659,7 +3675,7 @@
       </c>
       <c r="G9" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="H9" s="23">
         <f t="shared" si="2"/>
@@ -3711,7 +3727,7 @@
       <c r="Y9" s="23"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -3731,25 +3747,25 @@
   <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.59765625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="20.59765625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="20.625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.8984375" style="1"/>
+    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>77</v>
       </c>
@@ -3768,7 +3784,7 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>48</v>
       </c>
@@ -3868,7 +3884,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>78</v>
       </c>
@@ -3887,7 +3903,9 @@
       <c r="F4" s="25">
         <v>3</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="25">
+        <v>3</v>
+      </c>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
@@ -3923,7 +3941,7 @@
       <c r="Y4" s="56"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>85</v>
       </c>
@@ -3942,7 +3960,9 @@
       <c r="F5" s="25">
         <v>4</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="25">
+        <v>4</v>
+      </c>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
@@ -3978,7 +3998,7 @@
       <c r="Y5" s="56"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>92</v>
       </c>
@@ -3997,7 +4017,9 @@
       <c r="F6" s="25">
         <v>4</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="25">
+        <v>4</v>
+      </c>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
@@ -4010,7 +4032,7 @@
       <c r="Q6" s="25"/>
       <c r="R6" s="55">
         <f t="shared" si="0"/>
-        <v>4.75</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="S6" s="59" t="s">
         <v>93</v>
@@ -4033,7 +4055,7 @@
       <c r="Y6" s="56"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>99</v>
       </c>
@@ -4052,7 +4074,9 @@
       <c r="F7" s="25">
         <v>4</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="25">
+        <v>4</v>
+      </c>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
@@ -4065,7 +4089,7 @@
       <c r="Q7" s="25"/>
       <c r="R7" s="55">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S7" s="59" t="s">
         <v>93</v>
@@ -4088,7 +4112,7 @@
       <c r="Y7" s="56"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>105</v>
       </c>
@@ -4107,7 +4131,9 @@
       <c r="F8" s="25">
         <v>0</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
@@ -4143,7 +4169,7 @@
       <c r="Y8" s="56"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>111</v>
       </c>
@@ -4162,7 +4188,9 @@
       <c r="F9" s="25">
         <v>1</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
@@ -4194,7 +4222,7 @@
       <c r="Y9" s="56"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>116</v>
       </c>
@@ -4213,7 +4241,9 @@
       <c r="F10" s="25">
         <v>3</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="25">
+        <v>3</v>
+      </c>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -4249,7 +4279,7 @@
       <c r="Y10" s="56"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>122</v>
       </c>
@@ -4268,7 +4298,9 @@
       <c r="F11" s="25">
         <v>1</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="25">
+        <v>1</v>
+      </c>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
@@ -4304,7 +4336,7 @@
       <c r="Y11" s="56"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>128</v>
       </c>
@@ -4323,7 +4355,9 @@
       <c r="F12" s="25">
         <v>4</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="25">
+        <v>3</v>
+      </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
@@ -4336,7 +4370,7 @@
       <c r="Q12" s="25"/>
       <c r="R12" s="55">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="S12" s="59" t="s">
         <v>112</v>
@@ -4359,7 +4393,7 @@
       <c r="Y12" s="56"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>129</v>
       </c>
@@ -4378,7 +4412,9 @@
       <c r="F13" s="25">
         <v>5</v>
       </c>
-      <c r="G13" s="25"/>
+      <c r="G13" s="25">
+        <v>5</v>
+      </c>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
@@ -4414,7 +4450,7 @@
       <c r="Y13" s="56"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>136</v>
       </c>
@@ -4433,7 +4469,9 @@
       <c r="F14" s="25">
         <v>4</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="25">
+        <v>4</v>
+      </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
@@ -4446,7 +4484,7 @@
       <c r="Q14" s="25"/>
       <c r="R14" s="55">
         <f t="shared" si="3"/>
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="S14" s="59" t="s">
         <v>112</v>
@@ -4469,7 +4507,7 @@
       <c r="Y14" s="56"/>
       <c r="Z14" s="15"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>46</v>
       </c>
@@ -4495,7 +4533,7 @@
       </c>
       <c r="G15" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.9500000000000006</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="4"/>
@@ -4547,7 +4585,7 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>76</v>
       </c>
@@ -4570,7 +4608,7 @@
       </c>
       <c r="G16" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="H16" s="23">
         <f t="shared" si="5"/>
@@ -4622,7 +4660,7 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
     </row>
   </sheetData>
@@ -4637,6 +4675,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ff019923-845f-4cec-b528-abe64a753035">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D9ED7F45DD900409A5D99E97E335963" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="44488dccc8fb9294dc9e36698b55b96b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ff019923-845f-4cec-b528-abe64a753035" xmlns:ns3="4227a201-73e6-4916-b2cb-be6808c272c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="50eb2e8e6296c0fb34e6bfa23a8e76d0" ns2:_="" ns3:_="">
     <xsd:import namespace="ff019923-845f-4cec-b528-abe64a753035"/>
@@ -4847,40 +4904,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ff019923-845f-4cec-b528-abe64a753035">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C9A1E44-1F03-4B6A-83E6-7B60DC3DF1C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff019923-845f-4cec-b528-abe64a753035"/>
-    <ds:schemaRef ds:uri="4227a201-73e6-4916-b2cb-be6808c272c7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4903,9 +4930,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C9A1E44-1F03-4B6A-83E6-7B60DC3DF1C7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff019923-845f-4cec-b528-abe64a753035"/>
+    <ds:schemaRef ds:uri="4227a201-73e6-4916-b2cb-be6808c272c7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>